--- a/Statystyki_2018/Template/oglc2.xlsx
+++ b/Statystyki_2018/Template/oglc2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\Statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18CC9F-2695-4D29-B1BC-450CC1B660F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -357,71 +358,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,19 +773,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
     <col min="2" max="11" width="6.59765625" customWidth="1"/>
     <col min="12" max="12" width="8.09765625" customWidth="1"/>
     <col min="13" max="15" width="6.59765625" customWidth="1"/>
@@ -789,107 +796,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" ht="66" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="16" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="111" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="11" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="H2:N2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:G3"/>
@@ -897,12 +910,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -910,61 +917,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="38.3984375" customWidth="1"/>
+    <col min="2" max="8" width="14.59765625" customWidth="1"/>
     <col min="9" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -978,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -990,117 +991,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
     <col min="2" max="17" width="7.09765625" customWidth="1"/>
     <col min="18" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="96" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1123,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1142,156 +1143,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
@@ -1300,11 +1301,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L5"/>
@@ -1316,6 +1312,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1323,206 +1324,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Statystyki_2018/Template/oglc2.xlsx
+++ b/Statystyki_2018/Template/oglc2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\Statystyki\Statystyki_2018\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18CC9F-2695-4D29-B1BC-450CC1B660F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C5B94-255B-4266-A4B9-21DC4E676BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Wydajność referendarzy sądowych orzekających w Wydziale ( w oreksach odpowiednio ja wyżej)</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Terminowość sporządzania uzasadnień</t>
@@ -358,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -378,6 +375,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -393,7 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,15 +411,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,15 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,7 +779,7 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -796,79 +796,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="66" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="7" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="111" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
@@ -890,10 +890,10 @@
       <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -932,16 +932,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -997,65 +997,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" ht="96" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1125,198 +1125,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
-    <col min="13" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="1020" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
+    <row r="9" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1338,189 +1275,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="13.8" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
